--- a/seleniumConcept/resource/Excel_Reader.xlsx
+++ b/seleniumConcept/resource/Excel_Reader.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monocept\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Pradeep\CoreJavaPractice\seleniumConcept\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5996268-CD1D-4095-A5EE-9949594EB928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892D3650-55E0-4011-9C6A-E701FEA59551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FF2AB986-C673-4A00-87AA-EE4A244E64A1}"/>
   </bookViews>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C23CF9-8094-4312-AE5A-688E5A2B1527}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,6 +435,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>53920</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7536E0EB-F232-47D7-9ACE-3CBE75FDA51A}"/>
